--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\İlte\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\İlte\Documents\GitHub\satf_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C974F0E-2A85-46A3-A3CC-3026DF7FD6E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9BB1AF-D518-48A1-B0BF-A01FEF3ECD5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A84D9D6C-E388-48BB-A274-44B77416BBFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A84D9D6C-E388-48BB-A274-44B77416BBFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Kush, Johns &amp; Van Dyke 2018" sheetId="1" r:id="rId1"/>
-    <sheet name="Johns, Matsuki &amp; Van Dyke 2015" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Martin &amp; McElree 2018" sheetId="4" r:id="rId2"/>
+    <sheet name="Johns, Matsuki &amp; Van Dyke 2015" sheetId="2" r:id="rId3"/>
+    <sheet name="Foraker &amp; McElree 2007" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="0">'Kush, Johns &amp; Van Dyke 2018'!$A$5</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="583">
   <si>
     <t>Avg</t>
   </si>
@@ -1235,12 +1236,627 @@
   <si>
     <t>1.51</t>
   </si>
+  <si>
+    <t>Foraker &amp; McElree (2007)</t>
+  </si>
+  <si>
+    <t>Parameter values from the best fitting model, 4k-1b-2d, for the averaged data (over participants) and individual participants</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>3.87</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>3.71</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>Non-He</t>
+  </si>
+  <si>
+    <t>Cl-He</t>
+  </si>
+  <si>
+    <t>Non-It</t>
+  </si>
+  <si>
+    <t>Asymptotes (d' units)</t>
+  </si>
+  <si>
+    <t>Intercepts (ms)</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>He-Advantage</t>
+  </si>
+  <si>
+    <t>Note. Cl, clefted; non, nonclefted.</t>
+  </si>
+  <si>
+    <t>Experiment 3 (Table 7)</t>
+  </si>
+  <si>
+    <t>.997</t>
+  </si>
+  <si>
+    <t>.944</t>
+  </si>
+  <si>
+    <t>.953</t>
+  </si>
+  <si>
+    <t>.961</t>
+  </si>
+  <si>
+    <t>.924</t>
+  </si>
+  <si>
+    <t>.979</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>.904</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>.971</t>
+  </si>
+  <si>
+    <t>.966</t>
+  </si>
+  <si>
+    <t>.963</t>
+  </si>
+  <si>
+    <t>.957</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>.970</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>.945</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>.908</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>.844</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>.942</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>.981</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>4.98</t>
+  </si>
+  <si>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>3.59</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>3.73</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>4.42</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>Adj R2</t>
+  </si>
+  <si>
+    <t>Martin &amp; McElree (2018) Table 3</t>
+  </si>
+  <si>
+    <t>The bolded row represents one participant whose rate parameters were overestimated by the model fitting
+procedure. The results of the analysis did not change when this participant was excluded.</t>
+  </si>
+  <si>
+    <t>Empirical d′ and parameter estimates issuing from best-fitting models.</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Ambiguous, Local noun-related verb</t>
+  </si>
+  <si>
+    <t>Average empirical d′ across participants</t>
+  </si>
+  <si>
+    <t>6λ-2β-1δ average parameter estimates from fits of individual data</t>
+  </si>
+  <si>
+    <t>4λ-2β-1δ average parameter estimates from fits of individual data</t>
+  </si>
+  <si>
+    <t>4λ-2β-1δ parameter estimates from fit of average empirical d′</t>
+  </si>
+  <si>
+    <t>3λ-1β-1δ average parameter estimates from fits of individual data, fit separately by Ambiguity</t>
+  </si>
+  <si>
+    <t>3λ-1β-1δ parameter estimates from fit of average empirical d′, fit separately by Ambiguity</t>
+  </si>
+  <si>
+    <t>Ambiguous, Neutral verb</t>
+  </si>
+  <si>
+    <t>Ambiguous, Subject-related verb</t>
+  </si>
+  <si>
+    <t>Unambiguous, Local noun-related verb</t>
+  </si>
+  <si>
+    <t>Unambiguous, Neutral verb</t>
+  </si>
+  <si>
+    <t>2.85 (λ1)</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>Unambiguous, Subject-related verb</t>
+  </si>
+  <si>
+    <t>Diff. in estimates of Rate between Ambiguous and Unambiguous conditions in ms (β−1)</t>
+  </si>
+  <si>
+    <t>3.09 (λ2)</t>
+  </si>
+  <si>
+    <t>2.87 (λ2)</t>
+  </si>
+  <si>
+    <t>2.63 (λ1)</t>
+  </si>
+  <si>
+    <t>3.05
+Rate β: 1.0
+β−1: .998s</t>
+  </si>
+  <si>
+    <t>3.01
+Rate β:.752
+β−1: 1.33s</t>
+  </si>
+  <si>
+    <t>3.37
+Rate β:.749
+β−1: 1.34s</t>
+  </si>
+  <si>
+    <t>3.12
+Rate β:.685
+β−1: 1.46s</t>
+  </si>
+  <si>
+    <t>2.99
+Rate β: .771
+β−1: 1.30s
+Intercept δ: .734
+Adjusted-R2: .9953</t>
+  </si>
+  <si>
+    <t>3.26
+Rate β:.831
+β−1: 1.20s
+Intercept δ: .855
+Adjusted-R2: .9322</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.37 (λ3)</t>
+  </si>
+  <si>
+    <t>3.12 (λ3)</t>
+  </si>
+  <si>
+    <t>3.35
+Rate β:1.35
+β−1: .742s
+Intercept δ: .850
+Adjusted-R2: .9365</t>
+  </si>
+  <si>
+    <t>3.25
+Rate β:1.01
+β−1: .990s
+Intercept δ: .726
+Adjusted-R2: .9951</t>
+  </si>
+  <si>
+    <t>3.50 (λ4)
+Rate β:1.13
+β−1: .885s
+Intercept δ: .883
+Adjusted-R2: .9311</t>
+  </si>
+  <si>
+    <t>3.21 (λ4)
+Rate β:1.05
+β−1: .956s
+Intercept δ: .721
+Adjusted-R2: .9939</t>
+  </si>
+  <si>
+    <t>3.45
+Rate β:1.38
+β−1: .724s
+Intercept δ: .852
+Adjusted-R2: .9387</t>
+  </si>
+  <si>
+    <t>3.25
+Rate β: 1.01
+β−1: .990s
+Intercept δ: .723
+Adjusted-R2: .9946</t>
+  </si>
+  <si>
+    <t>6λ-2β-1δ parameter estimates from fit of
+average empirical d′</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,13 +1901,6 @@
       <charset val="162"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="162"/>
-    </font>
-    <font>
       <b/>
       <vertAlign val="superscript"/>
       <sz val="12"/>
@@ -1323,6 +1932,34 @@
       <family val="1"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="AdvEPSTIM"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1344,98 +1981,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1443,17 +1995,171 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="131">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1494,112 +2200,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1703,7 +2304,47 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1729,153 +2370,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color auto="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1895,7 +2407,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1915,7 +2428,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1935,8 +2449,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1956,6 +2470,7 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1976,7 +2491,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2012,7 +2528,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2027,7 +2543,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2041,41 +2557,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2089,8 +2572,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2104,8 +2587,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2119,8 +2602,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2134,8 +2617,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2149,8 +2632,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2164,8 +2647,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2179,8 +2662,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2194,8 +2677,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2209,8 +2692,8 @@
         <charset val="162"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2225,7 +2708,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2240,7 +2723,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2255,7 +2738,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2270,40 +2753,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2318,7 +2768,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2333,7 +2783,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2348,7 +2798,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2363,7 +2813,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2378,7 +2828,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2393,7 +2843,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2408,7 +2858,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2423,7 +2873,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2438,7 +2888,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2453,7 +2903,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2468,7 +2918,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2483,7 +2933,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2498,7 +2948,607 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2547,7 +3597,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE0CBD2-7037-4500-A166-2B527A047590}" name="Table1" displayName="Table1" ref="A4:H24" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE0CBD2-7037-4500-A166-2B527A047590}" name="Table1" displayName="Table1" ref="A4:H24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A4:H24" xr:uid="{12E6B547-050C-4666-89BC-F47AF00C02A3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2559,21 +3609,21 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EC9FBC27-5C98-40B6-AA65-DF92A0452CE0}" name="Model " dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{1E0F43DC-F535-43C9-AE92-8F81B9AA412B}" name="Adj. R2 " dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{66F9DAF7-07DC-4E2D-AD2B-1C33DA9398D4}" name="AIC " dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{FCE00A4E-DC71-448E-B734-C0C964F6D65A}" name="Prominent asymptote " dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{AA7B7FCF-CBD2-4BFA-B8B5-CD4875B17AC3}" name="Nonprominent asymptote " dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{C3CC544A-F94E-411A-A0A4-9F54FA07BB13}" name="Prominent rate " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A78E047F-09BE-415C-B117-2FA1C7C08CE4}" name="Nonprominent rate " dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{D3AC016D-6AD8-4B8E-9BC3-06FC7053D38F}" name="Intercept" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{EC9FBC27-5C98-40B6-AA65-DF92A0452CE0}" name="Model " dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{1E0F43DC-F535-43C9-AE92-8F81B9AA412B}" name="Adj. R2 " dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{66F9DAF7-07DC-4E2D-AD2B-1C33DA9398D4}" name="AIC " dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{FCE00A4E-DC71-448E-B734-C0C964F6D65A}" name="Prominent asymptote " dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{AA7B7FCF-CBD2-4BFA-B8B5-CD4875B17AC3}" name="Nonprominent asymptote " dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C3CC544A-F94E-411A-A0A4-9F54FA07BB13}" name="Prominent rate " dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A78E047F-09BE-415C-B117-2FA1C7C08CE4}" name="Nonprominent rate " dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{D3AC016D-6AD8-4B8E-9BC3-06FC7053D38F}" name="Intercept" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1BF79848-05A8-4C79-9B6B-C7B7C21E2EF8}" name="Table2" displayName="Table2" ref="J4:P24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1BF79848-05A8-4C79-9B6B-C7B7C21E2EF8}" name="Table2" displayName="Table2" ref="J4:P24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="J4:P24" xr:uid="{64857872-A99F-49FC-BCCD-E7BFB6393416}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2584,70 +3634,104 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1A4CFF5E-D648-4C88-A8E6-6B323F8069E4}" name="Model" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{13BE77D0-7C84-45D2-9F4B-09643A5581AC}" name="Adjusted R2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{CDD5FE8D-4A38-4AC1-9038-CC462D801D70}" name="AIC" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{169B2E18-AA65-47A8-BEEC-0B281FEE9B59}" name="Prominent asymptote" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{39732BA9-03B7-4D6E-B68E-E327253521D7}" name="Nonprominent asymptote" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{8FE2AA1F-60E8-4A5C-A2D7-C329A2C54BE9}" name="Rate" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{9AD72FD5-2FBC-42A3-A965-9E8F48154A1C}" name="Intercept" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1A4CFF5E-D648-4C88-A8E6-6B323F8069E4}" name="Model" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{13BE77D0-7C84-45D2-9F4B-09643A5581AC}" name="Adjusted R2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{CDD5FE8D-4A38-4AC1-9038-CC462D801D70}" name="AIC" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{169B2E18-AA65-47A8-BEEC-0B281FEE9B59}" name="Prominent asymptote" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{39732BA9-03B7-4D6E-B68E-E327253521D7}" name="Nonprominent asymptote" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{8FE2AA1F-60E8-4A5C-A2D7-C329A2C54BE9}" name="Rate" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9AD72FD5-2FBC-42A3-A965-9E8F48154A1C}" name="Intercept" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0ABACB90-955F-41CE-A5DF-B9EA7EE19443}" name="Table3" displayName="Table3" ref="A7:K12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0ABACB90-955F-41CE-A5DF-B9EA7EE19443}" name="Table3" displayName="Table3" ref="A7:K12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{501F3D0E-8F04-49B5-8EAF-0724BA005875}" name="Column1" headerRowDxfId="80" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{BEABF289-2603-468E-ACC4-F1F7833CDFF2}" name="Column2" headerRowDxfId="81" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{C369844F-2797-4CED-A18E-5012D7847CE3}" name="Column3" headerRowDxfId="82" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{76F30D62-ED64-4015-8427-E4E799519987}" name="Column4" headerRowDxfId="83" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{7E80BB2B-35BD-44C1-AA02-7178F23C6DF6}" name="Column5" headerRowDxfId="84" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{25737E0B-C572-4AC8-BCF5-C2BA8C3C33B7}" name="Column6" headerRowDxfId="85" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{F52324A2-764B-473A-A748-DD1A4A64C8C7}" name="Column7" headerRowDxfId="86" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{40260317-0976-4036-A4FA-A346C7EA741A}" name="Column8" headerRowDxfId="87" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{FE146627-C41D-47DC-9EDB-389ED47EDD72}" name="Column9" headerRowDxfId="88" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{DD0C7F09-E5D5-4420-8328-B430607FC7E7}" name="Column10" headerRowDxfId="89" dataDxfId="70"/>
-    <tableColumn id="11" xr3:uid="{BFA9E04A-8B55-46C8-A7E3-0F66764188A9}" name="Column11" headerRowDxfId="90" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{501F3D0E-8F04-49B5-8EAF-0724BA005875}" name="Column1" headerRowDxfId="130" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{BEABF289-2603-468E-ACC4-F1F7833CDFF2}" name="Column2" headerRowDxfId="129" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{C369844F-2797-4CED-A18E-5012D7847CE3}" name="Column3" headerRowDxfId="128" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{76F30D62-ED64-4015-8427-E4E799519987}" name="Column4" headerRowDxfId="127" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{7E80BB2B-35BD-44C1-AA02-7178F23C6DF6}" name="Column5" headerRowDxfId="126" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{25737E0B-C572-4AC8-BCF5-C2BA8C3C33B7}" name="Column6" headerRowDxfId="125" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{F52324A2-764B-473A-A748-DD1A4A64C8C7}" name="Column7" headerRowDxfId="124" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{40260317-0976-4036-A4FA-A346C7EA741A}" name="Column8" headerRowDxfId="123" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{FE146627-C41D-47DC-9EDB-389ED47EDD72}" name="Column9" headerRowDxfId="122" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{DD0C7F09-E5D5-4420-8328-B430607FC7E7}" name="Column10" headerRowDxfId="121" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{BFA9E04A-8B55-46C8-A7E3-0F66764188A9}" name="Column11" headerRowDxfId="120" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0962A28F-0661-49F1-82EE-0541504145F8}" name="Table36" displayName="Table36" ref="O7:Y10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0962A28F-0661-49F1-82EE-0541504145F8}" name="Table36" displayName="Table36" ref="O7:Y10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{21246226-7549-4DF1-95DD-F7C9BBD35F0C}" name="Column1" headerRowDxfId="66" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{2F1F1FC5-0817-40E6-9C37-058731F0F37B}" name="Column2" headerRowDxfId="65" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{86B7B498-46D3-4AD9-911B-A53932E85622}" name="Column3" headerRowDxfId="64" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{1A3EB490-25A3-4B39-8662-C22CBC6E072D}" name="Column4" headerRowDxfId="63" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{9A5FB69F-152B-4D4D-ADAC-98186B32B0DC}" name="Column5" headerRowDxfId="62" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{861CC939-5FAD-4815-BE36-4CBA689051D0}" name="Column6" headerRowDxfId="61" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{5622EF32-68A4-4778-88CA-B0055BF300A9}" name="Column7" headerRowDxfId="60" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{6DDA8628-C50B-4CF4-9B53-F1C6EFC3E6D0}" name="Column8" headerRowDxfId="59" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{680A8DE8-62B1-4B9C-B696-C1E25F8D2C41}" name="Column9" headerRowDxfId="58" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{246668BA-7B25-47CA-931C-F8E8D044CD64}" name="Column10" headerRowDxfId="57" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{6299353F-3F71-4CE7-9983-F2EE749AA340}" name="Column11" headerRowDxfId="56" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{21246226-7549-4DF1-95DD-F7C9BBD35F0C}" name="Column1" headerRowDxfId="119" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{2F1F1FC5-0817-40E6-9C37-058731F0F37B}" name="Column2" headerRowDxfId="118" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{86B7B498-46D3-4AD9-911B-A53932E85622}" name="Column3" headerRowDxfId="117" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{1A3EB490-25A3-4B39-8662-C22CBC6E072D}" name="Column4" headerRowDxfId="116" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{9A5FB69F-152B-4D4D-ADAC-98186B32B0DC}" name="Column5" headerRowDxfId="115" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{861CC939-5FAD-4815-BE36-4CBA689051D0}" name="Column6" headerRowDxfId="114" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{5622EF32-68A4-4778-88CA-B0055BF300A9}" name="Column7" headerRowDxfId="113" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{6DDA8628-C50B-4CF4-9B53-F1C6EFC3E6D0}" name="Column8" headerRowDxfId="112" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{680A8DE8-62B1-4B9C-B696-C1E25F8D2C41}" name="Column9" headerRowDxfId="111" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{246668BA-7B25-47CA-931C-F8E8D044CD64}" name="Column10" headerRowDxfId="110" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{6299353F-3F71-4CE7-9983-F2EE749AA340}" name="Column11" headerRowDxfId="109" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8F037E1C-3671-4C60-9883-A74CD660A0D2}" name="Table5" displayName="Table5" ref="A21:K43" headerRowCount="0" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8F037E1C-3671-4C60-9883-A74CD660A0D2}" name="Table5" displayName="Table5" ref="AC8:AM30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2E5F610A-C2E3-4948-B8FB-E627823D4D21}" name="Column1" headerRowDxfId="42" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{9D15F908-A6C9-409E-9BDF-70E5CEA39964}" name="Column2" headerRowDxfId="41" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{C9434D5C-C3C9-43F7-927E-2A85BF19BDB6}" name="Column3" headerRowDxfId="40" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{456BC761-DDDB-48DB-8F79-BF93201E7767}" name="Column4" headerRowDxfId="39" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{10D197E5-E19D-479F-BC05-DE68BEEFB3FA}" name="Column5" headerRowDxfId="38" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{0C2A0600-1122-40F7-8005-68EF7140F1C3}" name="Column6" headerRowDxfId="37" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{AABABDCA-38F0-4A49-AC96-5682C79157E5}" name="Column7" headerRowDxfId="36" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{0F4504FE-C5E4-483A-BEF2-02AAFC0B03B1}" name="Column8" headerRowDxfId="35" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{EDD21B1C-AB84-4B4C-A0CC-9E98EE5E2BE4}" name="Column9" headerRowDxfId="34" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{D0D7890A-DC94-46B4-98FE-8BE15FE32810}" name="Column10" headerRowDxfId="33" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{81655766-D3FE-46EE-86D5-F4D22C8EE764}" name="Column11" headerRowDxfId="32" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{2E5F610A-C2E3-4948-B8FB-E627823D4D21}" name="Column1" headerRowDxfId="108" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9D15F908-A6C9-409E-9BDF-70E5CEA39964}" name="Column2" headerRowDxfId="107" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{C9434D5C-C3C9-43F7-927E-2A85BF19BDB6}" name="Column3" headerRowDxfId="106" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{456BC761-DDDB-48DB-8F79-BF93201E7767}" name="Column4" headerRowDxfId="105" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{10D197E5-E19D-479F-BC05-DE68BEEFB3FA}" name="Column5" headerRowDxfId="104" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{0C2A0600-1122-40F7-8005-68EF7140F1C3}" name="Column6" headerRowDxfId="103" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{AABABDCA-38F0-4A49-AC96-5682C79157E5}" name="Column7" headerRowDxfId="102" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{0F4504FE-C5E4-483A-BEF2-02AAFC0B03B1}" name="Column8" headerRowDxfId="101" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{EDD21B1C-AB84-4B4C-A0CC-9E98EE5E2BE4}" name="Column9" headerRowDxfId="100" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{D0D7890A-DC94-46B4-98FE-8BE15FE32810}" name="Column10" headerRowDxfId="99" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{81655766-D3FE-46EE-86D5-F4D22C8EE764}" name="Column11" headerRowDxfId="98" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{085FF4B3-A15B-4730-8F2A-430A2B66A176}" name="Table38" displayName="Table38" ref="A7:J19" headerRowCount="0" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{B508B9E0-6030-4191-865A-115CEF827809}" name="Column1" headerRowDxfId="97" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{2B0D6DEA-F8C9-4874-AF8E-070387DEE367}" name="Column2" headerRowDxfId="96" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{1279B8D2-CF8C-49CE-9332-7BF427CDF57B}" name="Column3" headerRowDxfId="95" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{7887D0BF-4A6B-4640-87AF-A4EBDF2580A6}" name="Column4" headerRowDxfId="94" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{526E5BC6-9C0F-4FE9-9817-516EED4C856D}" name="Column5" headerRowDxfId="93" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{13E15AD8-753E-4824-A956-C6C3B59C2089}" name="Column6" headerRowDxfId="92" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{79D441F9-C683-4156-8F90-12A5CCEFDC15}" name="Column7" headerRowDxfId="91" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{E84CA25C-5F41-4BEF-ADA7-CBC8186AB305}" name="Column8" headerRowDxfId="90" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{83FCE6EA-D95F-4E86-BD8F-CF6A09573382}" name="Column9" headerRowDxfId="89" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{3DA92D0E-83C7-436E-AC02-C24FE99A2DB3}" name="Column10" headerRowDxfId="88" dataDxfId="70"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{018756A1-0F3C-49B4-B7C9-6CE989CE019C}" name="Table389" displayName="Table389" ref="N7:U29" headerRowCount="0" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CBF8B7D4-B2FA-4188-B74E-8F42B40CEFBD}" name="Column1" headerRowDxfId="87" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{D3EE8B70-5151-45B2-8755-360B58D80A49}" name="Column2" headerRowDxfId="86" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{08F5E9DF-2C17-4F4E-BB8C-35E6A388370B}" name="Column3" headerRowDxfId="85" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{8328345C-6D38-4F3D-8539-FABEEC98994D}" name="Column4" headerRowDxfId="84" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{1C6FD0E0-0D79-4D85-94B4-CD798A485FA4}" name="Column5" headerRowDxfId="83" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{5ABD8898-E8A1-438F-8FAE-140B4DCB4F10}" name="Column6" headerRowDxfId="82" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{A489E902-951B-4015-AEC6-6F624C6AFFE0}" name="Column7" headerRowDxfId="81" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{C6EA75F3-7192-4F9D-A43A-C3C4B8D6AD29}" name="Column8" headerRowDxfId="80" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2950,1222 +4034,1228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91B638D-E784-4982-BD91-EE2EFAA3C2E4}">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="7.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="26"/>
+    <col min="10" max="10" width="7.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.6">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="31.5">
+      <c r="A1" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:16" s="26" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" s="26" customFormat="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" s="26" customFormat="1">
+      <c r="A4" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25" t="s">
+      <c r="I4" s="35"/>
+      <c r="J4" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:16" s="26" customFormat="1">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="27" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:16" s="26" customFormat="1">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="35"/>
+      <c r="J6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:16" s="26" customFormat="1">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="29" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:16" s="26" customFormat="1">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="29" t="s">
+      <c r="I8" s="35"/>
+      <c r="J8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:16" s="26" customFormat="1">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="29" t="s">
+      <c r="I9" s="35"/>
+      <c r="J9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:16" s="26" customFormat="1">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="29" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="39" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:16" s="26" customFormat="1">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="29" t="s">
+      <c r="I11" s="35"/>
+      <c r="J11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O11" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="P11" s="39" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:16" s="26" customFormat="1">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="29" t="s">
+      <c r="I12" s="35"/>
+      <c r="J12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="N12" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="P12" s="37" t="s">
+      <c r="P12" s="39" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:16" s="26" customFormat="1">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="29" t="s">
+      <c r="I13" s="35"/>
+      <c r="J13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="P13" s="37" t="s">
+      <c r="P13" s="39" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:16" s="26" customFormat="1">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="29" t="s">
+      <c r="I14" s="35"/>
+      <c r="J14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="M14" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="39" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:16" s="26" customFormat="1">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="29" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="P15" s="37" t="s">
+      <c r="P15" s="39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:16" s="26" customFormat="1">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="29" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="O16" s="37" t="s">
+      <c r="O16" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="P16" s="37" t="s">
+      <c r="P16" s="39" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:16" s="26" customFormat="1">
+      <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="29" t="s">
+      <c r="I17" s="35"/>
+      <c r="J17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="M17" s="37" t="s">
+      <c r="M17" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="39" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:16" s="26" customFormat="1">
+      <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="29" t="s">
+      <c r="I18" s="35"/>
+      <c r="J18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="N18" s="37" t="s">
+      <c r="N18" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="O18" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="P18" s="37" t="s">
+      <c r="P18" s="39" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:16" s="26" customFormat="1">
+      <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="29" t="s">
+      <c r="I19" s="35"/>
+      <c r="J19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="N19" s="37" t="s">
+      <c r="N19" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="O19" s="37" t="s">
+      <c r="O19" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="P19" s="37" t="s">
+      <c r="P19" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+    </row>
+    <row r="20" spans="1:16" s="26" customFormat="1">
+      <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="29" t="s">
+      <c r="I20" s="35"/>
+      <c r="J20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="O20" s="37" t="s">
+      <c r="O20" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="P20" s="37" t="s">
+      <c r="P20" s="39" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:16" s="26" customFormat="1">
+      <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="29" t="s">
+      <c r="I21" s="35"/>
+      <c r="J21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="L21" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="N21" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="O21" s="37" t="s">
+      <c r="O21" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="P21" s="37" t="s">
+      <c r="P21" s="39" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:16" s="26" customFormat="1">
+      <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="29" t="s">
+      <c r="I22" s="35"/>
+      <c r="J22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="K22" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="O22" s="37" t="s">
+      <c r="O22" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="37" t="s">
+      <c r="P22" s="39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:16" s="26" customFormat="1">
+      <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="29" t="s">
+      <c r="I23" s="35"/>
+      <c r="J23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="N23" s="37" t="s">
+      <c r="N23" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="O23" s="37" t="s">
+      <c r="O23" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="P23" s="37" t="s">
+      <c r="P23" s="39" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:16" s="26" customFormat="1">
+      <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="29" t="s">
+      <c r="I24" s="35"/>
+      <c r="J24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="L24" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="O24" s="37" t="s">
+      <c r="O24" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="P24" s="37" t="s">
+      <c r="P24" s="39" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I26" s="4"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E29" s="8"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+    <row r="25" spans="1:16" s="26" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" s="26" customFormat="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" s="26" customFormat="1">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" s="26" customFormat="1">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" s="26" customFormat="1">
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" s="26" customFormat="1">
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" s="26" customFormat="1">
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" s="26" customFormat="1">
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" s="26" customFormat="1">
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" s="26" customFormat="1">
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" s="26" customFormat="1">
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" s="26" customFormat="1">
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" s="26" customFormat="1">
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" s="26" customFormat="1">
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" s="26" customFormat="1">
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" s="26" customFormat="1">
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" s="26" customFormat="1">
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" s="26" customFormat="1">
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" s="26" customFormat="1">
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" s="26" customFormat="1">
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" s="26" customFormat="1">
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" s="26" customFormat="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" s="26" customFormat="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" s="26" customFormat="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J2:P3"/>
     <mergeCell ref="A2:H3"/>
+    <mergeCell ref="A25:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4180,311 +5270,805 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B047CB3-0781-4CE2-9E4F-6FF964A02753}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" ht="50.1" customHeight="1">
+      <c r="A4" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="31.5">
+      <c r="A5" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="78.75">
+      <c r="A7" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="31.5">
+      <c r="A8" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="78.75">
+      <c r="A10" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="63">
+      <c r="A11" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="21">
+        <v>256</v>
+      </c>
+      <c r="D11" s="43">
+        <v>340</v>
+      </c>
+      <c r="E11" s="43">
+        <v>455</v>
+      </c>
+      <c r="F11" s="43">
+        <v>504</v>
+      </c>
+      <c r="G11" s="43">
+        <v>475</v>
+      </c>
+      <c r="H11" s="43">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="O15" s="41"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B5:E5 B6:D6 G6:H6 G5:H5 B7 B10 B8:D8 G8:H8 B9:D9 G9:H9" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B464E454-3EFC-449F-A35B-0CED375B7260}">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="6.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="23"/>
+    <col min="15" max="15" width="4.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="5" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="6.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" style="23"/>
+    <col min="29" max="29" width="4.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="5" style="23" bestFit="1" customWidth="1"/>
+    <col min="34" max="39" width="6.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:39" ht="24.75">
+      <c r="A1" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:39" ht="18.75">
+      <c r="A2" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="O2" s="16" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="O2" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-    </row>
-    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+    </row>
+    <row r="3" spans="1:39" ht="18.75" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="O3" s="17" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="O3" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-    </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="AC3" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+    </row>
+    <row r="4" spans="1:39" ht="15" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="AC4" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+    </row>
+    <row r="5" spans="1:39" ht="15.75">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="11" t="s">
+      <c r="K5" s="5"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12" t="s">
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12" t="s">
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="5" t="s">
+      <c r="X5" s="14"/>
+      <c r="Y5" s="25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="13" t="s">
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+    </row>
+    <row r="6" spans="1:39" ht="18.75">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="13" t="s">
+      <c r="O6" s="26"/>
+      <c r="P6" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Y6" s="25" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM6" s="14"/>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="29">
         <v>3897</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="29">
         <v>2690</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="29">
         <v>1489</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="29">
         <v>1223</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="29">
         <v>3666</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="29">
         <v>3256</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="29">
         <v>1685</v>
       </c>
-      <c r="W7" s="33">
+      <c r="W7" s="29">
         <v>1156</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" s="13" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE7" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ7" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK7" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL7" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM7" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="15.75">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>266</v>
       </c>
       <c r="F8" s="30">
@@ -4499,25 +6083,25 @@
       <c r="I8" s="30">
         <v>1358</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="7" t="s">
         <v>251</v>
       </c>
       <c r="K8" s="30">
         <v>1306</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="7" t="s">
         <v>266</v>
       </c>
       <c r="T8" s="30">
@@ -4532,27 +6116,60 @@
       <c r="W8" s="30">
         <v>2328</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="X8" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="Y8" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="AC8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE8" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF8" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG8" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH8" s="29">
+        <v>2690</v>
+      </c>
+      <c r="AI8" s="29">
+        <v>1482</v>
+      </c>
+      <c r="AJ8" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK8" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL8" s="29">
+        <v>1266</v>
+      </c>
+      <c r="AM8" s="29">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="15.75">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>253</v>
       </c>
       <c r="F9" s="30">
@@ -4561,7 +6178,7 @@
       <c r="G9" s="30">
         <v>1126</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>254</v>
       </c>
       <c r="I9" s="30">
@@ -4573,19 +6190,19 @@
       <c r="K9" s="30">
         <v>1026</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="7" t="s">
         <v>253</v>
       </c>
       <c r="T9" s="30">
@@ -4594,7 +6211,7 @@
       <c r="U9" s="30">
         <v>1097</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V9" s="7" t="s">
         <v>295</v>
       </c>
       <c r="W9" s="30">
@@ -4606,21 +6223,54 @@
       <c r="Y9" s="30">
         <v>1144</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="AC9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE9" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF9" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG9" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH9" s="30">
+        <v>3114</v>
+      </c>
+      <c r="AI9" s="30">
+        <v>1817</v>
+      </c>
+      <c r="AJ9" s="30">
+        <v>1534</v>
+      </c>
+      <c r="AK9" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL9" s="30">
+        <v>1195</v>
+      </c>
+      <c r="AM9" s="30">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="15.75">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>205</v>
       </c>
       <c r="F10" s="30">
@@ -4632,28 +6282,28 @@
       <c r="H10" s="30">
         <v>2359</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="7" t="s">
         <v>257</v>
       </c>
       <c r="K10" s="30">
         <v>1433</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="7" t="s">
         <v>271</v>
       </c>
       <c r="T10" s="30">
@@ -4668,27 +6318,60 @@
       <c r="W10" s="30">
         <v>1306</v>
       </c>
-      <c r="X10" s="10" t="s">
+      <c r="X10" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Y10" s="7" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="AC10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE10" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF10" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG10" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH10" s="30">
+        <v>3534</v>
+      </c>
+      <c r="AI10" s="30">
+        <v>1759</v>
+      </c>
+      <c r="AJ10" s="30">
+        <v>1110</v>
+      </c>
+      <c r="AK10" s="30">
+        <v>1572</v>
+      </c>
+      <c r="AL10" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM10" s="30">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="15.75">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="7" t="s">
         <v>271</v>
       </c>
       <c r="F11" s="30">
@@ -4700,7 +6383,7 @@
       <c r="H11" s="30">
         <v>2093</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="7" t="s">
         <v>259</v>
       </c>
       <c r="J11" s="30">
@@ -4709,21 +6392,54 @@
       <c r="K11" s="30">
         <v>1580</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="AC11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE11" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF11" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG11" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH11" s="30">
+        <v>2363</v>
+      </c>
+      <c r="AI11" s="30">
+        <v>1040</v>
+      </c>
+      <c r="AJ11" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK11" s="30">
+        <v>1058</v>
+      </c>
+      <c r="AL11" s="30">
+        <v>1429</v>
+      </c>
+      <c r="AM11" s="30">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="15.75">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>271</v>
       </c>
       <c r="F12" s="30">
@@ -4735,1308 +6451,1083 @@
       <c r="H12" s="30">
         <v>1947</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="7" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-    </row>
-    <row r="20" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="31" t="s">
+      <c r="AC12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD12" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE12" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF12" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG12" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH12" s="30">
+        <v>1640</v>
+      </c>
+      <c r="AI12" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="AJ12" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="AK12" s="30">
+        <v>3608</v>
+      </c>
+      <c r="AL12" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM12" s="30">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="15.75">
+      <c r="AC13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD13" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE13" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF13" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG13" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH13" s="30">
+        <v>1402</v>
+      </c>
+      <c r="AI13" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ13" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK13" s="30">
+        <v>3386</v>
+      </c>
+      <c r="AL13" s="30">
+        <v>1563</v>
+      </c>
+      <c r="AM13" s="30">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="15.75">
+      <c r="AC14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD14" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE14" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF14" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG14" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="F21" s="33">
-        <v>2690</v>
-      </c>
-      <c r="G21" s="33">
-        <v>1482</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="J21" s="33">
-        <v>1266</v>
-      </c>
-      <c r="K21" s="33">
-        <v>1579</v>
-      </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="30">
-        <v>3114</v>
-      </c>
-      <c r="G22" s="30">
-        <v>1817</v>
-      </c>
-      <c r="H22" s="30">
-        <v>1534</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="J22" s="30">
-        <v>1195</v>
-      </c>
-      <c r="K22" s="30">
-        <v>1287</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="F23" s="30">
-        <v>3534</v>
-      </c>
-      <c r="G23" s="30">
-        <v>1759</v>
-      </c>
-      <c r="H23" s="30">
-        <v>1110</v>
-      </c>
-      <c r="I23" s="30">
-        <v>1572</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="K23" s="30">
-        <v>1550</v>
-      </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="F24" s="30">
-        <v>2363</v>
-      </c>
-      <c r="G24" s="30">
-        <v>1040</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="I24" s="30">
-        <v>1058</v>
-      </c>
-      <c r="J24" s="30">
-        <v>1429</v>
-      </c>
-      <c r="K24" s="30">
-        <v>1990</v>
-      </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="32" t="s">
+      <c r="AH14" s="30">
+        <v>3097</v>
+      </c>
+      <c r="AI14" s="30">
+        <v>1337</v>
+      </c>
+      <c r="AJ14" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK14" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL14" s="30">
+        <v>1547</v>
+      </c>
+      <c r="AM14" s="30">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="15.75">
+      <c r="AC15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD15" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE15" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF15" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG15" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH15" s="30">
+        <v>2836</v>
+      </c>
+      <c r="AI15" s="30">
+        <v>2128</v>
+      </c>
+      <c r="AJ15" s="30">
+        <v>1010</v>
+      </c>
+      <c r="AK15" s="30">
+        <v>1719</v>
+      </c>
+      <c r="AL15" s="30">
+        <v>1827</v>
+      </c>
+      <c r="AM15" s="30">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="15.75">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="AC16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD16" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE16" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF16" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG16" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH16" s="30">
+        <v>2007</v>
+      </c>
+      <c r="AI16" s="30">
+        <v>1203</v>
+      </c>
+      <c r="AJ16" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="AK16" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL16" s="30">
+        <v>2258</v>
+      </c>
+      <c r="AM16" s="30">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="17" spans="12:39" ht="15.75">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="AC17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD17" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE17" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF17" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG17" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH17" s="30">
+        <v>2057</v>
+      </c>
+      <c r="AI17" s="30">
+        <v>1554</v>
+      </c>
+      <c r="AJ17" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="AK17" s="30">
+        <v>4848</v>
+      </c>
+      <c r="AL17" s="30">
+        <v>2957</v>
+      </c>
+      <c r="AM17" s="30">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="18" spans="12:39" ht="15.75">
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="AC18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE18" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF18" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG18" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="AH18" s="30">
+        <v>1915</v>
+      </c>
+      <c r="AI18" s="30">
+        <v>1172</v>
+      </c>
+      <c r="AJ18" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK18" s="30">
+        <v>1074</v>
+      </c>
+      <c r="AL18" s="30">
+        <v>1353</v>
+      </c>
+      <c r="AM18" s="30">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="19" spans="12:39" ht="15.75">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="AC19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD19" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE19" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF19" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG19" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH19" s="30">
+        <v>3287</v>
+      </c>
+      <c r="AI19" s="30">
+        <v>3276</v>
+      </c>
+      <c r="AJ19" s="30">
+        <v>2388</v>
+      </c>
+      <c r="AK19" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="AL19" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="AM19" s="30">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="20" spans="12:39" ht="15.75">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="AC20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD20" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE20" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF20" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG20" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH20" s="30">
+        <v>2776</v>
+      </c>
+      <c r="AI20" s="30">
+        <v>1382</v>
+      </c>
+      <c r="AJ20" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK20" s="30">
+        <v>1223</v>
+      </c>
+      <c r="AL20" s="30">
+        <v>2148</v>
+      </c>
+      <c r="AM20" s="30">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="21" spans="12:39" ht="15.75">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="AC21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD21" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE21" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF21" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG21" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH21" s="30">
+        <v>2315</v>
+      </c>
+      <c r="AI21" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ21" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK21" s="30">
+        <v>2367</v>
+      </c>
+      <c r="AL21" s="30">
+        <v>1335</v>
+      </c>
+      <c r="AM21" s="30">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="22" spans="12:39" ht="15.75">
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="AC22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD22" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE22" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF22" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG22" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH22" s="30">
+        <v>3365</v>
+      </c>
+      <c r="AI22" s="30">
+        <v>1524</v>
+      </c>
+      <c r="AJ22" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK22" s="30">
+        <v>2252</v>
+      </c>
+      <c r="AL22" s="30">
+        <v>1717</v>
+      </c>
+      <c r="AM22" s="30">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="23" spans="12:39" ht="15.75">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="AC23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD23" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE23" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF23" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG23" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH23" s="30">
+        <v>2812</v>
+      </c>
+      <c r="AI23" s="30">
+        <v>1214</v>
+      </c>
+      <c r="AJ23" s="30">
+        <v>1283</v>
+      </c>
+      <c r="AK23" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL23" s="30">
+        <v>1626</v>
+      </c>
+      <c r="AM23" s="30">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="24" spans="12:39" ht="15.75">
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="AC24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD24" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE24" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF24" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG24" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH24" s="30">
+        <v>2938</v>
+      </c>
+      <c r="AI24" s="30">
+        <v>1560</v>
+      </c>
+      <c r="AJ24" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK24" s="30">
+        <v>3810</v>
+      </c>
+      <c r="AL24" s="30">
+        <v>1601</v>
+      </c>
+      <c r="AM24" s="30">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="25" spans="12:39" ht="15.75">
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="AC25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD25" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE25" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF25" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG25" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH25" s="30">
+        <v>1930</v>
+      </c>
+      <c r="AI25" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ25" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK25" s="30">
+        <v>1751</v>
+      </c>
+      <c r="AL25" s="30">
+        <v>2250</v>
+      </c>
+      <c r="AM25" s="30">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="26" spans="12:39" ht="15.75">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="AC26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD26" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE26" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF26" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG26" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH26" s="30">
+        <v>2126</v>
+      </c>
+      <c r="AI26" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ26" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK26" s="30">
+        <v>1690</v>
+      </c>
+      <c r="AL26" s="30">
+        <v>1177</v>
+      </c>
+      <c r="AM26" s="30">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="27" spans="12:39" ht="15.75">
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="AC27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD27" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE27" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF27" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG27" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH27" s="30">
+        <v>1699</v>
+      </c>
+      <c r="AI27" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ27" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK27" s="30">
+        <v>1405</v>
+      </c>
+      <c r="AL27" s="30">
+        <v>1594</v>
+      </c>
+      <c r="AM27" s="30">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="28" spans="12:39" ht="15.75">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="AC28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD28" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE28" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF28" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG28" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="F25" s="30">
-        <v>1640</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="I25" s="30">
-        <v>3608</v>
-      </c>
-      <c r="J25" s="32" t="s">
+      <c r="AH28" s="30">
+        <v>3179</v>
+      </c>
+      <c r="AI28" s="30">
+        <v>1375</v>
+      </c>
+      <c r="AJ28" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="AK28" s="30">
+        <v>1065</v>
+      </c>
+      <c r="AL28" s="30">
+        <v>1601</v>
+      </c>
+      <c r="AM28" s="30">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="29" spans="12:39" ht="15.75">
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="AC29" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD29" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE29" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF29" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG29" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH29" s="30">
+        <v>3104</v>
+      </c>
+      <c r="AI29" s="30">
+        <v>2003</v>
+      </c>
+      <c r="AJ29" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="AK29" s="30">
+        <v>1126</v>
+      </c>
+      <c r="AL29" s="30">
+        <v>2026</v>
+      </c>
+      <c r="AM29" s="30">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="30" spans="12:39" ht="15.75">
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="AC30" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD30" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE30" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF30" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG30" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH30" s="30">
+        <v>2898</v>
+      </c>
+      <c r="AI30" s="30">
+        <v>1765</v>
+      </c>
+      <c r="AJ30" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK30" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="K25" s="30">
-        <v>1214</v>
-      </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="F26" s="30">
-        <v>1402</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="I26" s="30">
-        <v>3386</v>
-      </c>
-      <c r="J26" s="30">
-        <v>1563</v>
-      </c>
-      <c r="K26" s="30">
-        <v>1951</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="F27" s="30">
-        <v>3097</v>
-      </c>
-      <c r="G27" s="30">
-        <v>1337</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="J27" s="30">
-        <v>1547</v>
-      </c>
-      <c r="K27" s="30">
-        <v>1893</v>
-      </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="F28" s="30">
-        <v>2836</v>
-      </c>
-      <c r="G28" s="30">
-        <v>2128</v>
-      </c>
-      <c r="H28" s="30">
-        <v>1010</v>
-      </c>
-      <c r="I28" s="30">
-        <v>1719</v>
-      </c>
-      <c r="J28" s="30">
-        <v>1827</v>
-      </c>
-      <c r="K28" s="30">
-        <v>2282</v>
-      </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="F29" s="30">
-        <v>2007</v>
-      </c>
-      <c r="G29" s="30">
-        <v>1203</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="J29" s="30">
-        <v>2258</v>
-      </c>
-      <c r="K29" s="30">
-        <v>2583</v>
-      </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="F30" s="30">
-        <v>2057</v>
-      </c>
-      <c r="G30" s="30">
-        <v>1554</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="I30" s="30">
-        <v>4848</v>
-      </c>
-      <c r="J30" s="30">
-        <v>2957</v>
-      </c>
-      <c r="K30" s="30">
-        <v>2814</v>
-      </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="F31" s="30">
-        <v>1915</v>
-      </c>
-      <c r="G31" s="30">
-        <v>1172</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="I31" s="30">
-        <v>1074</v>
-      </c>
-      <c r="J31" s="30">
-        <v>1353</v>
-      </c>
-      <c r="K31" s="30">
-        <v>1938</v>
-      </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="F32" s="30">
-        <v>3287</v>
-      </c>
-      <c r="G32" s="30">
-        <v>3276</v>
-      </c>
-      <c r="H32" s="30">
-        <v>2388</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="J32" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="K32" s="30">
-        <v>1248</v>
-      </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="F33" s="30">
-        <v>2776</v>
-      </c>
-      <c r="G33" s="30">
-        <v>1382</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="I33" s="30">
-        <v>1223</v>
-      </c>
-      <c r="J33" s="30">
-        <v>2148</v>
-      </c>
-      <c r="K33" s="30">
-        <v>2490</v>
-      </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-    </row>
-    <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="F34" s="30">
-        <v>2315</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="I34" s="30">
-        <v>2367</v>
-      </c>
-      <c r="J34" s="30">
-        <v>1335</v>
-      </c>
-      <c r="K34" s="30">
-        <v>1602</v>
-      </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="F35" s="30">
-        <v>3365</v>
-      </c>
-      <c r="G35" s="30">
-        <v>1524</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="I35" s="30">
-        <v>2252</v>
-      </c>
-      <c r="J35" s="30">
-        <v>1717</v>
-      </c>
-      <c r="K35" s="30">
-        <v>1714</v>
-      </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-    </row>
-    <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="30">
-        <v>2812</v>
-      </c>
-      <c r="G36" s="30">
-        <v>1214</v>
-      </c>
-      <c r="H36" s="30">
-        <v>1283</v>
-      </c>
-      <c r="I36" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="J36" s="30">
-        <v>1626</v>
-      </c>
-      <c r="K36" s="30">
-        <v>1687</v>
-      </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="F37" s="30">
-        <v>2938</v>
-      </c>
-      <c r="G37" s="30">
-        <v>1560</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="I37" s="30">
-        <v>3810</v>
-      </c>
-      <c r="J37" s="30">
-        <v>1601</v>
-      </c>
-      <c r="K37" s="30">
-        <v>1684</v>
-      </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="F38" s="30">
-        <v>1930</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="I38" s="30">
-        <v>1751</v>
-      </c>
-      <c r="J38" s="30">
-        <v>2250</v>
-      </c>
-      <c r="K38" s="30">
-        <v>2291</v>
-      </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="F39" s="30">
-        <v>2126</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="H39" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="I39" s="30">
-        <v>1690</v>
-      </c>
-      <c r="J39" s="30">
-        <v>1177</v>
-      </c>
-      <c r="K39" s="30">
-        <v>1292</v>
-      </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="F40" s="30">
-        <v>1699</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="H40" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="I40" s="30">
-        <v>1405</v>
-      </c>
-      <c r="J40" s="30">
-        <v>1594</v>
-      </c>
-      <c r="K40" s="30">
-        <v>1882</v>
-      </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="F41" s="30">
-        <v>3179</v>
-      </c>
-      <c r="G41" s="30">
-        <v>1375</v>
-      </c>
-      <c r="H41" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="I41" s="30">
-        <v>1065</v>
-      </c>
-      <c r="J41" s="30">
-        <v>1601</v>
-      </c>
-      <c r="K41" s="30">
-        <v>1848</v>
-      </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="F42" s="30">
-        <v>3104</v>
-      </c>
-      <c r="G42" s="30">
-        <v>2003</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="I42" s="30">
-        <v>1126</v>
-      </c>
-      <c r="J42" s="30">
-        <v>2026</v>
-      </c>
-      <c r="K42" s="30">
-        <v>2383</v>
-      </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-    </row>
-    <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="F43" s="30">
-        <v>2898</v>
-      </c>
-      <c r="G43" s="30">
-        <v>1765</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="J43" s="30">
+      <c r="AL30" s="30">
         <v>1466</v>
       </c>
-      <c r="K43" s="30">
+      <c r="AM30" s="30">
         <v>1747</v>
       </c>
+    </row>
+    <row r="31" spans="12:39">
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" spans="12:39">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+    </row>
+    <row r="33" spans="12:25">
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" spans="12:25">
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+    </row>
+    <row r="35" spans="12:25">
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+    </row>
+    <row r="36" spans="12:25">
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+    </row>
+    <row r="37" spans="12:25">
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+    </row>
+    <row r="38" spans="12:25">
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+    </row>
+    <row r="39" spans="12:25">
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+    </row>
+    <row r="40" spans="12:25">
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+    </row>
+    <row r="41" spans="12:25">
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+    </row>
+    <row r="42" spans="12:25">
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F5:H5"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="Q5:S5"/>
@@ -6045,10 +7536,18 @@
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K4"/>
     <mergeCell ref="O3:Y4"/>
+    <mergeCell ref="AC3:AM3"/>
+    <mergeCell ref="AC4:AM5"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C43:E43 C21:E21 H21:I21 C22:E22 I22 C23:E23 J23 C24:E24 H24 C25:E25 G25:H25 J25 C26:E26 G26:H26 C27:E27 H27:I27 C28:E28 C29:E29 H29:I29 C30:E30 H30 C31:E31 H31 C32:E32 I32:J32 C33:E33 H33 C34:E34 G34:H34 C35:E35 H35 C36:E36 I36 C37:E37 H37 C38:E38 G38:H38 C39:E39 G39:H39 C40:E40 G40:H40 C41:E41 H41 C42:E42 H42 H43:I43 C12:E12 C7:E7 I7:J7 C8:E8 J8 C9:E9 H9 C10:E10 I10:J10 C11:E11 I11 I12:K12 Q10:S10 Q7:S7 X7:Y7 Q8:S8 X8:Y8 Q9:S9 V9 X10:Y10" twoDigitTextYear="1"/>
+    <ignoredError sqref="C12:E12 C7:E7 I7:J7 C8:E8 J8 C9:E9 H9 C10:E10 I10:J10 C11:E11 I11 I12:K12 Q10:S10 Q7:S7 X7:Y7 Q8:S8 X8:Y8 Q9:S9 V9 X10:Y10 AE8:AM30" twoDigitTextYear="1"/>
   </ignoredErrors>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
@@ -6058,14 +7557,1229 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79D6DCD-AB75-44F1-A572-AB1D198A0E66}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="8"/>
+    <col min="15" max="15" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="24.75">
+      <c r="A1" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" s="8" customFormat="1" ht="18.75">
+      <c r="A2" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="N2" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:21" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="N3" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" s="8" customFormat="1" ht="15.75">
+      <c r="A5" s="7"/>
+      <c r="B5" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="8" customFormat="1" ht="18.75">
+      <c r="A6" s="7"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:21" s="8" customFormat="1" ht="15.75">
+      <c r="A7" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="20">
+        <v>814</v>
+      </c>
+      <c r="I7" s="20">
+        <v>936</v>
+      </c>
+      <c r="J7" s="20">
+        <v>122</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="U7" s="20">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="8" customFormat="1" ht="15.75">
+      <c r="A8" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H8" s="21">
+        <v>781</v>
+      </c>
+      <c r="I8" s="21">
+        <v>814</v>
+      </c>
+      <c r="J8" s="21">
+        <v>33</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="U8" s="21">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="8" customFormat="1" ht="15.75">
+      <c r="A9" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H9" s="21">
+        <v>933</v>
+      </c>
+      <c r="I9" s="21">
+        <v>868</v>
+      </c>
+      <c r="J9" s="21">
+        <v>65</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="U9" s="21">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="8" customFormat="1" ht="15.75">
+      <c r="A10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" s="21">
+        <v>1067</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1086</v>
+      </c>
+      <c r="J10" s="21">
+        <v>19</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="U10" s="21">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="8" customFormat="1" ht="15.75">
+      <c r="A11" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" s="21">
+        <v>799</v>
+      </c>
+      <c r="I11" s="21">
+        <v>961</v>
+      </c>
+      <c r="J11" s="21">
+        <v>162</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="U11" s="21">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="8" customFormat="1" ht="15.75">
+      <c r="A12" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H12" s="21">
+        <v>776</v>
+      </c>
+      <c r="I12" s="21">
+        <v>900</v>
+      </c>
+      <c r="J12" s="21">
+        <v>124</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="U12" s="21">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="8" customFormat="1" ht="15.75">
+      <c r="A13" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H13" s="21">
+        <v>1067</v>
+      </c>
+      <c r="I13" s="21">
+        <v>1242</v>
+      </c>
+      <c r="J13" s="21">
+        <v>175</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="U13" s="21">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="8" customFormat="1" ht="15.75">
+      <c r="A14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H14" s="21">
+        <v>1045</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1180</v>
+      </c>
+      <c r="J14" s="21">
+        <v>135</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="U14" s="21">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="8" customFormat="1" ht="15.75">
+      <c r="A15" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H15" s="21">
+        <v>823</v>
+      </c>
+      <c r="I15" s="21">
+        <v>1034</v>
+      </c>
+      <c r="J15" s="21">
+        <v>211</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="U15" s="21">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="8" customFormat="1" ht="15.75">
+      <c r="A16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="21">
+        <v>773</v>
+      </c>
+      <c r="I16" s="21">
+        <v>760</v>
+      </c>
+      <c r="J16" s="21">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="U16" s="21">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="A17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H17" s="21">
+        <v>1069</v>
+      </c>
+      <c r="I17" s="21">
+        <v>1075</v>
+      </c>
+      <c r="J17" s="21">
+        <v>6</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="U17" s="21">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="A18" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H18" s="21">
+        <v>847</v>
+      </c>
+      <c r="I18" s="21">
+        <v>822</v>
+      </c>
+      <c r="J18" s="21">
+        <v>25</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="U18" s="21">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="A19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H19" s="21">
+        <v>761</v>
+      </c>
+      <c r="I19" s="21">
+        <v>890</v>
+      </c>
+      <c r="J19" s="21">
+        <v>129</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="U19" s="21">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="A20" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="N20" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="U20" s="21">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="N21" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="U21" s="21">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="N22" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="U22" s="21">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="N23" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="U23" s="21">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="N24" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="U24" s="21">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="N25" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="U25" s="21">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="N26" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="U26" s="21">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="N27" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="U27" s="21">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="N28" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="U28" s="21">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="N29" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="U29" s="21">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="8" customFormat="1" ht="15.75">
+      <c r="N30" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="N30:U30"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="N3:U4"/>
+    <mergeCell ref="N2:U2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A3:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D19:G19 C8:C19 D7:G7 D8:G8 D9:G9 D10:G10 D11:G11 D12:G12 D13:G13 D14:G14 D15:G15 D16:G16 D17:G17 D18:G18 P7:U19 P29:T29 P20:T20 P21:T21 P22:T22 P23:T23 P24:T24 P25:T25 P26:T26 P27:T27 P28:T28" twoDigitTextYear="1"/>
+  </ignoredErrors>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>